--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_8.xlsx
@@ -518,111 +518,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_0</t>
+          <t>model_22_8_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.998263681250489</v>
+        <v>0.9747069497287959</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8285987727565289</v>
+        <v>0.7288991772507944</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9975888573415844</v>
+        <v>0.6436629505533576</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9985478537223342</v>
+        <v>0.9876031596739001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9979842729061793</v>
+        <v>0.9763133286437761</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01161077147299251</v>
+        <v>0.1691347436273297</v>
       </c>
       <c r="H2" t="n">
-        <v>1.146160795807172</v>
+        <v>1.812852450028444</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01957816241674059</v>
+        <v>0.1653374892407261</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006209575626300055</v>
+        <v>0.1247206840009934</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01289386902152032</v>
+        <v>0.1450291020163306</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1447241428984336</v>
+        <v>0.6797031200855155</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1077532898476539</v>
+        <v>0.4112599465390833</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000731081578741</v>
+        <v>1.010649705377349</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1123405704765285</v>
+        <v>0.4287681338887043</v>
       </c>
       <c r="P2" t="n">
-        <v>170.9116440729423</v>
+        <v>165.5541191643271</v>
       </c>
       <c r="Q2" t="n">
-        <v>269.6405858872665</v>
+        <v>264.2830609786513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_1</t>
+          <t>model_22_8_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9984012773587271</v>
+        <v>0.975116717011779</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8281998282833751</v>
+        <v>0.7284026443545654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9973003209517912</v>
+        <v>0.9291540005506859</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9983549945757872</v>
+        <v>0.9943585628040138</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9977366758892068</v>
+        <v>0.9926807618307187</v>
       </c>
       <c r="G3" t="n">
-        <v>0.010690665663633</v>
+        <v>0.1663946279192166</v>
       </c>
       <c r="H3" t="n">
-        <v>1.148828539336122</v>
+        <v>1.816172767791852</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02192104009044196</v>
+        <v>0.03287196683558283</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007034267652252632</v>
+        <v>0.05675671278516857</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0144776565871829</v>
+        <v>0.0448143398103757</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1407266256263132</v>
+        <v>0.5251795917602817</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1033956752656174</v>
+        <v>0.4079149763360211</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000673146375273</v>
+        <v>1.010477171784514</v>
       </c>
       <c r="O3" t="n">
-        <v>0.107797443220229</v>
+        <v>0.4252807613790547</v>
       </c>
       <c r="P3" t="n">
-        <v>171.0767685722667</v>
+        <v>165.586786070511</v>
       </c>
       <c r="Q3" t="n">
-        <v>269.8057103865909</v>
+        <v>264.3157278848352</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9984971982058486</v>
+        <v>0.9707604379178587</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8278149710314778</v>
+        <v>0.7252202052470141</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9970150879936913</v>
+        <v>0.2502933775194305</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9981470767977183</v>
+        <v>0.974020710825264</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9974861432730388</v>
+        <v>0.9502494206277337</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01004924251725656</v>
+        <v>0.1955250862790827</v>
       </c>
       <c r="H4" t="n">
-        <v>1.151402081551665</v>
+        <v>1.837453752757832</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02423709433169474</v>
+        <v>0.3478577678649246</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007923352441318521</v>
+        <v>0.261369399822871</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01608022210728367</v>
+        <v>0.3046135838438978</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1372070024586798</v>
+        <v>0.786795106757097</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1002459102270839</v>
+        <v>0.4421821867500801</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000632758650169</v>
+        <v>1.012311394560902</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1045135861630926</v>
+        <v>0.4610067978833448</v>
       </c>
       <c r="P4" t="n">
-        <v>171.2005160374698</v>
+        <v>165.2641331784515</v>
       </c>
       <c r="Q4" t="n">
-        <v>269.929457851794</v>
+        <v>263.9930749927757</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9985611938549672</v>
+        <v>0.9666028997782999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8274480761720697</v>
+        <v>0.7209399471630926</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9967382923113191</v>
+        <v>0.003083375738879623</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9979331089943712</v>
+        <v>0.9554729483577739</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9972389432508435</v>
+        <v>0.9256441858705717</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009621303316927385</v>
+        <v>0.2233265629620151</v>
       </c>
       <c r="H5" t="n">
-        <v>1.153855509165922</v>
+        <v>1.866075858273791</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0264846389997057</v>
+        <v>0.462561195625422</v>
       </c>
       <c r="J5" t="n">
-        <v>0.008838307963990219</v>
+        <v>0.4479725632727543</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01766147024254577</v>
+        <v>0.4552668794490881</v>
       </c>
       <c r="L5" t="n">
-        <v>0.134103868027942</v>
+        <v>0.830763864813408</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09808824250096126</v>
+        <v>0.4725743993933813</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000605813113698</v>
+        <v>1.014061936935453</v>
       </c>
       <c r="O5" t="n">
-        <v>0.102264062054881</v>
+        <v>0.4926928699394246</v>
       </c>
       <c r="P5" t="n">
-        <v>171.287551087102</v>
+        <v>164.9982403416404</v>
       </c>
       <c r="Q5" t="n">
-        <v>270.0164929014263</v>
+        <v>263.7271821559646</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9986008766007743</v>
+        <v>0.9629228798004864</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8271015431481038</v>
+        <v>0.7175530361241054</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9964731949862836</v>
+        <v>-0.1260527867710226</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9977195786253518</v>
+        <v>0.9360573883660083</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9969993135581742</v>
+        <v>0.9047998515280293</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009355944612992648</v>
+        <v>0.2479348734985878</v>
       </c>
       <c r="H6" t="n">
-        <v>1.15617277709282</v>
+        <v>1.888724147986791</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02863719453916061</v>
+        <v>0.5224793234561536</v>
       </c>
       <c r="J6" t="n">
-        <v>0.009751392957788842</v>
+        <v>0.6433063627520574</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01919429374847473</v>
+        <v>0.5828928783226168</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1313577719874567</v>
+        <v>0.8437091209369599</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09672613200677802</v>
+        <v>0.4979305910451655</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000589104589148</v>
+        <v>1.015611419031374</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1008439636970029</v>
+        <v>0.519128527164378</v>
       </c>
       <c r="P6" t="n">
-        <v>171.3434867004459</v>
+        <v>164.7891783483298</v>
       </c>
       <c r="Q6" t="n">
-        <v>270.0724285147701</v>
+        <v>263.518120162654</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9986221878948374</v>
+        <v>0.9596998889695254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8267765810858451</v>
+        <v>0.7150186246865519</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9962219272816938</v>
+        <v>-0.1948763081363905</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9975109024628963</v>
+        <v>0.9179537612048025</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9967700829861775</v>
+        <v>0.8873186481332338</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009213435891463988</v>
+        <v>0.2694870280257321</v>
       </c>
       <c r="H7" t="n">
-        <v>1.158345799899457</v>
+        <v>1.905671768939602</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03067745537290691</v>
+        <v>0.5544128769301077</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01064372070197184</v>
+        <v>0.8254412215588491</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02066059788265696</v>
+        <v>0.6899270492444783</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1289237179420504</v>
+        <v>0.8423154525383663</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09598664433901202</v>
+        <v>0.5191214000845391</v>
       </c>
       <c r="N7" t="n">
-        <v>1.0005801314127</v>
+        <v>1.016968467802305</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1000729945082696</v>
+        <v>0.5412214728155798</v>
       </c>
       <c r="P7" t="n">
-        <v>171.3741848746449</v>
+        <v>164.6224700465535</v>
       </c>
       <c r="Q7" t="n">
-        <v>270.1031266889691</v>
+        <v>263.3514118608778</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9986298054159869</v>
+        <v>0.9568725338779079</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8264736151874313</v>
+        <v>0.7130802751180501</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9959857807004657</v>
+        <v>-0.2337991198405576</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9973099844751893</v>
+        <v>0.9018380327383181</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9965530460091302</v>
+        <v>0.8726035936077718</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009162497492461416</v>
+        <v>0.2883935645421514</v>
       </c>
       <c r="H8" t="n">
-        <v>1.160371734257179</v>
+        <v>1.918633521429453</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03259493466651208</v>
+        <v>0.5724727446069324</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01150287343234074</v>
+        <v>0.987576461236213</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02204890404942641</v>
+        <v>0.7800246029215727</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1267628862033959</v>
+        <v>0.8335835313069946</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09572093549721197</v>
+        <v>0.5370228715261124</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000576924035374</v>
+        <v>1.018158933104039</v>
       </c>
       <c r="O8" t="n">
-        <v>0.09979597389098101</v>
+        <v>0.5598850469575752</v>
       </c>
       <c r="P8" t="n">
-        <v>171.3852729708869</v>
+        <v>164.4868583763358</v>
       </c>
       <c r="Q8" t="n">
-        <v>270.1142147852112</v>
+        <v>263.21580019066</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9986273349962628</v>
+        <v>0.9543697918515743</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8261925476975821</v>
+        <v>0.711524977840982</v>
       </c>
       <c r="D9" t="n">
-        <v>0.995765241391623</v>
+        <v>-0.2578138310230573</v>
       </c>
       <c r="E9" t="n">
-        <v>0.997118662418594</v>
+        <v>0.8877070064519854</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9963491208358524</v>
+        <v>0.8600839955535619</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009179017200531912</v>
+        <v>0.3051294119963118</v>
       </c>
       <c r="H9" t="n">
-        <v>1.162251233855998</v>
+        <v>1.929033801482692</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03438568495361262</v>
+        <v>0.5836153750404548</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01232099265192553</v>
+        <v>1.129744240904786</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02335333880276907</v>
+        <v>0.8566797832168987</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1248489944610412</v>
+        <v>0.8210682800810362</v>
       </c>
       <c r="M9" t="n">
-        <v>0.09580718762458228</v>
+        <v>0.552385202550097</v>
       </c>
       <c r="N9" t="n">
-        <v>1.0005779642121</v>
+        <v>1.01921271922039</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09988589794997998</v>
+        <v>0.5759013842176602</v>
       </c>
       <c r="P9" t="n">
-        <v>171.381670277693</v>
+        <v>164.3740385814759</v>
       </c>
       <c r="Q9" t="n">
-        <v>270.1106120920173</v>
+        <v>263.1029803958002</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9986175960333508</v>
+        <v>0.9521281346388614</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8259328167800855</v>
+        <v>0.7102097749166276</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9955603509353523</v>
+        <v>-0.2743961306361917</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9969381987256503</v>
+        <v>0.8753346854778054</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9961587557037677</v>
+        <v>0.8492909105264046</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009244141690368491</v>
+        <v>0.3201193840996054</v>
       </c>
       <c r="H10" t="n">
-        <v>1.163988055697248</v>
+        <v>1.937828569493803</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03604936860854165</v>
+        <v>0.5913094270289603</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01309268002693094</v>
+        <v>1.254218243472263</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02457103493181837</v>
+        <v>0.9227638439924208</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1231362224355305</v>
+        <v>0.8067960758070104</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09614645958311981</v>
+        <v>0.5657909367421905</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000582064828063</v>
+        <v>1.020156574888901</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1002396134181822</v>
+        <v>0.5898778282680065</v>
       </c>
       <c r="P10" t="n">
-        <v>171.3675305177348</v>
+        <v>164.2781225549048</v>
       </c>
       <c r="Q10" t="n">
-        <v>270.0964723320591</v>
+        <v>263.007064369229</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9986027839050117</v>
+        <v>0.9500979812021743</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8256935869629896</v>
+        <v>0.7090479418605022</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9953708756740296</v>
+        <v>-0.2873163701282671</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9967691804581995</v>
+        <v>0.8644593994832508</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9959820035134884</v>
+        <v>0.8398665134196703</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009343190460775152</v>
+        <v>0.3336950294787291</v>
       </c>
       <c r="H11" t="n">
-        <v>1.165587786585721</v>
+        <v>1.945597752489863</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03758788290058694</v>
+        <v>0.5973043129419628</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01381542520081844</v>
+        <v>1.36363105127391</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02570165405070269</v>
+        <v>0.9804676821079366</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1216161104812524</v>
+        <v>0.7919783173530337</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09666018032662235</v>
+        <v>0.5776634223133131</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000588301513679</v>
+        <v>1.021011376335927</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1007752043172842</v>
+        <v>0.6022557501293251</v>
       </c>
       <c r="P11" t="n">
-        <v>171.3462149879618</v>
+        <v>164.1950555770297</v>
       </c>
       <c r="Q11" t="n">
-        <v>270.0751568022861</v>
+        <v>262.923997391354</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.998584563373857</v>
+        <v>0.9482434087851421</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8254739565610677</v>
+        <v>0.7079889443688085</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9951962390105811</v>
+        <v>-0.2984844837094951</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9966117161043632</v>
+        <v>0.8548479900820313</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9958185312318747</v>
+        <v>0.831546881823039</v>
       </c>
       <c r="G12" t="n">
-        <v>0.009465031236504676</v>
+        <v>0.3460965637709441</v>
       </c>
       <c r="H12" t="n">
-        <v>1.167056456094678</v>
+        <v>1.952679273593053</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03900590972242522</v>
+        <v>0.6024862267001392</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01448876426357792</v>
+        <v>1.460328396984647</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02674732645062124</v>
+        <v>1.031407245604227</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1202582531834405</v>
+        <v>0.7773580327279778</v>
       </c>
       <c r="M12" t="n">
-        <v>0.09728839209538143</v>
+        <v>0.5882997227357362</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000595973316271</v>
+        <v>1.021792248932572</v>
       </c>
       <c r="O12" t="n">
-        <v>0.101430160361617</v>
+        <v>0.6133448598809079</v>
       </c>
       <c r="P12" t="n">
-        <v>171.320302388229</v>
+        <v>164.122074913637</v>
       </c>
       <c r="Q12" t="n">
-        <v>270.0492442025532</v>
+        <v>262.8510167279612</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9985642199188086</v>
+        <v>0.9465397293428146</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8252727209266236</v>
+        <v>0.7070047205822971</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9950358065566535</v>
+        <v>-0.3088335399141395</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9964657398255931</v>
+        <v>0.8463097698764653</v>
       </c>
       <c r="F13" t="n">
-        <v>0.995667915130433</v>
+        <v>0.8241399420941662</v>
       </c>
       <c r="G13" t="n">
-        <v>0.009601068014086434</v>
+        <v>0.3574890760465106</v>
       </c>
       <c r="H13" t="n">
-        <v>1.16840211970881</v>
+        <v>1.959260782585389</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04030860022435319</v>
+        <v>0.6072881045052796</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01511297874982533</v>
+        <v>1.54622872611507</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02771076256778015</v>
+        <v>1.076758565821926</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1190436221666131</v>
+        <v>0.7633485125272762</v>
       </c>
       <c r="M13" t="n">
-        <v>0.09798503974631247</v>
+        <v>0.5979039020164617</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000604538981554</v>
+        <v>1.022509587645131</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1021564657453076</v>
+        <v>0.6233579089570057</v>
       </c>
       <c r="P13" t="n">
-        <v>171.291761870458</v>
+        <v>164.0573009476564</v>
       </c>
       <c r="Q13" t="n">
-        <v>270.0207036847822</v>
+        <v>262.7862427619806</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9985427467792846</v>
+        <v>0.9449692985173848</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8250887606929542</v>
+        <v>0.7060808788829768</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9948888651863915</v>
+        <v>-0.3187969744547949</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9963310070385253</v>
+        <v>0.8386908037580652</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9955296155715081</v>
+        <v>0.8175029212888565</v>
       </c>
       <c r="G14" t="n">
-        <v>0.009744658996958134</v>
+        <v>0.3679905542073291</v>
       </c>
       <c r="H14" t="n">
-        <v>1.169632262638416</v>
+        <v>1.965438516282644</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04150174489486266</v>
+        <v>0.6119110569985005</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01568911453139719</v>
+        <v>1.622880731034958</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02859541426690044</v>
+        <v>1.117395815057237</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1179584448177521</v>
+        <v>0.7538462922540254</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09871503936563128</v>
+        <v>0.6066222500101106</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000613580303459</v>
+        <v>1.023170821676891</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1029175429597284</v>
+        <v>0.6324474150742126</v>
       </c>
       <c r="P14" t="n">
-        <v>171.2620718785015</v>
+        <v>163.999396018115</v>
       </c>
       <c r="Q14" t="n">
-        <v>269.9910136928257</v>
+        <v>262.7283378324393</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9985208132790329</v>
+        <v>0.9435198201606994</v>
       </c>
       <c r="C15" t="n">
-        <v>0.824920897340937</v>
+        <v>0.7052101949199929</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9947543898218191</v>
+        <v>-0.328538916542594</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9962068888757848</v>
+        <v>0.8318692435807873</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9954027734072119</v>
+        <v>0.8115293709850057</v>
       </c>
       <c r="G15" t="n">
-        <v>0.009891328414135672</v>
+        <v>0.3776832226527185</v>
       </c>
       <c r="H15" t="n">
-        <v>1.170754765646295</v>
+        <v>1.971260783952248</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04259366723278865</v>
+        <v>0.6164312387972399</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01621986073099709</v>
+        <v>1.691510287348013</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02940677720281286</v>
+        <v>1.153970757284787</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1169946476659642</v>
+        <v>0.7513383283069882</v>
       </c>
       <c r="M15" t="n">
-        <v>0.09945515780559433</v>
+        <v>0.6145593727645186</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00062281546146</v>
+        <v>1.02378112835339</v>
       </c>
       <c r="O15" t="n">
-        <v>0.103689169773937</v>
+        <v>0.6407224375763849</v>
       </c>
       <c r="P15" t="n">
-        <v>171.2321936468916</v>
+        <v>163.9473989400414</v>
       </c>
       <c r="Q15" t="n">
-        <v>269.9611354612158</v>
+        <v>262.6763407543656</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9984990198062134</v>
+        <v>0.9421817035064644</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8247680018221291</v>
+        <v>0.7043894095020022</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9946317528116189</v>
+        <v>-0.338082213366905</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9960930517766955</v>
+        <v>0.8257449187417987</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9952868880123052</v>
+        <v>0.806136201310564</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01003706146722941</v>
+        <v>0.3866312148810483</v>
       </c>
       <c r="H16" t="n">
-        <v>1.171777178684583</v>
+        <v>1.976749379821721</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04358946368457559</v>
+        <v>0.6208592508113172</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01670664369959043</v>
+        <v>1.753125179761752</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03014805369208301</v>
+        <v>1.186992136403152</v>
       </c>
       <c r="L16" t="n">
-        <v>0.116120157971308</v>
+        <v>0.748987974239399</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1001851359595295</v>
+        <v>0.6217967633246801</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000631991660542</v>
+        <v>1.024344545892015</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1044502246091483</v>
+        <v>0.6482679388361564</v>
       </c>
       <c r="P16" t="n">
-        <v>171.2029417802106</v>
+        <v>163.9005679468114</v>
       </c>
       <c r="Q16" t="n">
-        <v>269.9318835945349</v>
+        <v>262.6295097611356</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9984777165361912</v>
+        <v>0.9409473838393512</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8246288518249564</v>
+        <v>0.7036172515089556</v>
       </c>
       <c r="D17" t="n">
-        <v>0.994519996941133</v>
+        <v>-0.347411304697429</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9959887680764637</v>
+        <v>0.820237174370956</v>
       </c>
       <c r="F17" t="n">
-        <v>0.99518110000754</v>
+        <v>0.8012576872014936</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01017951653196049</v>
+        <v>0.3948851161785534</v>
       </c>
       <c r="H17" t="n">
-        <v>1.172707675356403</v>
+        <v>1.981912803876685</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04449690670780816</v>
+        <v>0.6251878732205827</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01715257503112289</v>
+        <v>1.80853685137842</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03082474086946552</v>
+        <v>1.216862374807358</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1153468619765504</v>
+        <v>0.7468165595134206</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1008935901430834</v>
+        <v>0.6283988511913062</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000640961458446</v>
+        <v>1.024864259436063</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1051888391539984</v>
+        <v>0.6551510912514706</v>
       </c>
       <c r="P17" t="n">
-        <v>171.1747555218728</v>
+        <v>163.8583208030045</v>
       </c>
       <c r="Q17" t="n">
-        <v>269.9036973361971</v>
+        <v>262.5872626173287</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9984571776688664</v>
+        <v>0.9398102980753772</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8245024382518561</v>
+        <v>0.7028930345822522</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9944182789885245</v>
+        <v>-0.3564527207384403</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9958934874191762</v>
+        <v>0.8152768169886832</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9950846891922008</v>
+        <v>0.7968398087711445</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01031686003233367</v>
+        <v>0.4024888139180465</v>
       </c>
       <c r="H18" t="n">
-        <v>1.173553003501806</v>
+        <v>1.986755645800263</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04532284315330039</v>
+        <v>0.6293830166380944</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01756000812257539</v>
+        <v>1.85844143588</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03144144559554243</v>
+        <v>1.243912226259047</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1146516964474433</v>
+        <v>0.7448344581326043</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1015719451046088</v>
+        <v>0.634420061093631</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000649609402583</v>
+        <v>1.025343032389315</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1058960730906244</v>
+        <v>0.6614286365249602</v>
       </c>
       <c r="P18" t="n">
-        <v>171.1479516513162</v>
+        <v>163.8201759480353</v>
       </c>
       <c r="Q18" t="n">
-        <v>269.8768934656404</v>
+        <v>262.5491177623596</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9984376147817918</v>
+        <v>0.938764365244971</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8243876961595068</v>
+        <v>0.7022160936270769</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9943259875241685</v>
+        <v>-0.3651707115573917</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9958065342151315</v>
+        <v>0.8108062790244752</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9949970497636647</v>
+        <v>0.792836605603632</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01044767714828064</v>
+        <v>0.4094829715710504</v>
       </c>
       <c r="H19" t="n">
-        <v>1.174320284401684</v>
+        <v>1.991282353084546</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04607223774948284</v>
+        <v>0.6334280933862672</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0179318318876935</v>
+        <v>1.903418102359646</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03200204296813856</v>
+        <v>1.268423097872956</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1140270488202072</v>
+        <v>0.7431717271613149</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1022138794307341</v>
+        <v>0.6399085650083537</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000657846407667</v>
+        <v>1.025783425160012</v>
       </c>
       <c r="O19" t="n">
-        <v>0.10656533589</v>
+        <v>0.667150797414102</v>
       </c>
       <c r="P19" t="n">
-        <v>171.1227512154818</v>
+        <v>163.7857199200374</v>
       </c>
       <c r="Q19" t="n">
-        <v>269.851693029806</v>
+        <v>262.5146617343617</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9984191068434176</v>
+        <v>0.9378039312185723</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8242836307760885</v>
+        <v>0.7015855352688476</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9942421389892627</v>
+        <v>-0.3735065557474353</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9957273553269295</v>
+        <v>0.8067747581625335</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9949173689813916</v>
+        <v>0.7892085597731304</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01057143981740986</v>
+        <v>0.4159053983279703</v>
       </c>
       <c r="H20" t="n">
-        <v>1.17501617009978</v>
+        <v>1.99549889972948</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04675307686493735</v>
+        <v>0.6372958572105003</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01827041161747662</v>
+        <v>1.94397795682571</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03251173179124854</v>
+        <v>1.290636950590319</v>
       </c>
       <c r="L20" t="n">
-        <v>0.113469780352718</v>
+        <v>0.7416772387559095</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1028175073487481</v>
+        <v>0.6449072788610548</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000665639223824</v>
+        <v>1.026187818434285</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1071946614981659</v>
+        <v>0.6723623168642767</v>
       </c>
       <c r="P20" t="n">
-        <v>171.0991985420496</v>
+        <v>163.7545949048948</v>
       </c>
       <c r="Q20" t="n">
-        <v>269.8281403563739</v>
+        <v>262.483536719219</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9984017406865111</v>
+        <v>0.9369235382344814</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8241893645145701</v>
+        <v>0.7010002205811776</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9941661393937302</v>
+        <v>-0.3814244360726926</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9956553543009643</v>
+        <v>0.8031382791429897</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9948450608094824</v>
+        <v>0.7859209247966805</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01068756738860732</v>
+        <v>0.4217925902664236</v>
       </c>
       <c r="H21" t="n">
-        <v>1.175646529024609</v>
+        <v>1.999412901741055</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04737018362125016</v>
+        <v>0.640969689205011</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01857829782892673</v>
+        <v>1.980563420439199</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03297426072219426</v>
+        <v>1.310766530691355</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1129635770706833</v>
+        <v>0.7403316459464867</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1033806915657238</v>
+        <v>0.6494556106974699</v>
       </c>
       <c r="N21" t="n">
-        <v>1.00067295128989</v>
+        <v>1.02655851021706</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1077818216332104</v>
+        <v>0.677104280603313</v>
       </c>
       <c r="P21" t="n">
-        <v>171.0773482787448</v>
+        <v>163.7264831560554</v>
       </c>
       <c r="Q21" t="n">
-        <v>269.806290093069</v>
+        <v>262.4554249703796</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9983855256410844</v>
+        <v>0.9361178290343186</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8241039621245719</v>
+        <v>0.7004587279464261</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9940972100456349</v>
+        <v>-0.3889030383284049</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9955900338083615</v>
+        <v>0.799857781478961</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9947794840998884</v>
+        <v>0.7829423883358377</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01079599747203963</v>
+        <v>0.427180371397862</v>
       </c>
       <c r="H22" t="n">
-        <v>1.176217615199769</v>
+        <v>2.003033865482984</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04792988089489723</v>
+        <v>0.6444396997523556</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01885761716817134</v>
+        <v>2.013567468386798</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0333937309505597</v>
+        <v>1.329003557825411</v>
       </c>
       <c r="L22" t="n">
-        <v>0.112515923933763</v>
+        <v>0.7391249826450036</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1039037894979756</v>
+        <v>0.6535903697254588</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000679778677438</v>
+        <v>1.026897756196076</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1083271889274001</v>
+        <v>0.6814150648832545</v>
       </c>
       <c r="P22" t="n">
-        <v>171.0571596359671</v>
+        <v>163.7010978789883</v>
       </c>
       <c r="Q22" t="n">
-        <v>269.7861014502913</v>
+        <v>262.4300396933125</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9983704616592561</v>
+        <v>0.9353815888178396</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8240267144357168</v>
+        <v>0.6999591375730205</v>
       </c>
       <c r="D23" t="n">
-        <v>0.994034847952978</v>
+        <v>-0.3959246777473167</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9955306605131135</v>
+        <v>0.7968980825767535</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9947200531936069</v>
+        <v>0.7802446914336318</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01089673038788866</v>
+        <v>0.4321036131155314</v>
       </c>
       <c r="H23" t="n">
-        <v>1.176734170850836</v>
+        <v>2.006374628610348</v>
       </c>
       <c r="I23" t="n">
-        <v>0.04843625291499458</v>
+        <v>0.6476976832645371</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01911150548004191</v>
+        <v>2.043344061600082</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0337738887227962</v>
+        <v>1.345521056352546</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1121121845518018</v>
+        <v>0.7380463815671273</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1043874053125599</v>
+        <v>0.6573458854480885</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000686121406629</v>
+        <v>1.027207752076699</v>
       </c>
       <c r="O23" t="n">
-        <v>0.108831393268434</v>
+        <v>0.6853304606851858</v>
       </c>
       <c r="P23" t="n">
-        <v>171.0385849983185</v>
+        <v>163.6781797486429</v>
       </c>
       <c r="Q23" t="n">
-        <v>269.7675268126427</v>
+        <v>262.4071215629671</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9983565203234404</v>
+        <v>0.9347098766680738</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8239568509051991</v>
+        <v>0.6994996153484929</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9939784346829732</v>
+        <v>-0.4024835071888007</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9954767891991023</v>
+        <v>0.7942281326108878</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9946662428326639</v>
+        <v>0.7778026449639063</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01098995616468212</v>
+        <v>0.4365953553539653</v>
       </c>
       <c r="H24" t="n">
-        <v>1.1772013486011</v>
+        <v>2.00944745584167</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04889432127472386</v>
+        <v>0.6507409267159187</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01934186656940651</v>
+        <v>2.070205582538617</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03411809392206519</v>
+        <v>1.360473254627268</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1117478732968076</v>
+        <v>0.7370790045600883</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1048329917758819</v>
+        <v>0.6607536268186239</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000691991442762</v>
+        <v>1.027490578245022</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1092959492699908</v>
+        <v>0.688883276660862</v>
       </c>
       <c r="P24" t="n">
-        <v>171.021546998459</v>
+        <v>163.657496946282</v>
       </c>
       <c r="Q24" t="n">
-        <v>269.7504888127833</v>
+        <v>262.3864387606063</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9983436595576124</v>
+        <v>0.9340978165695206</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8238936755351443</v>
+        <v>0.699077753610222</v>
       </c>
       <c r="D25" t="n">
-        <v>0.993927382870155</v>
+        <v>-0.4085810603392144</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9954279808674157</v>
+        <v>0.7918194764961608</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9946175261881689</v>
+        <v>0.7755927350068403</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01107595616499216</v>
+        <v>0.4406882040512683</v>
       </c>
       <c r="H25" t="n">
-        <v>1.177623802591553</v>
+        <v>2.012268447227982</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04930885530469283</v>
+        <v>0.653570141724481</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01955057765551634</v>
+        <v>2.094438308801893</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03442971648010458</v>
+        <v>1.374004124025936</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1114201788007054</v>
+        <v>0.7362130538853926</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1052423686781714</v>
+        <v>0.663843508706132</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000697406502058</v>
+        <v>1.027748287760202</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1097227541945378</v>
+        <v>0.6921047012172585</v>
       </c>
       <c r="P25" t="n">
-        <v>171.0059572626763</v>
+        <v>163.6388353477678</v>
       </c>
       <c r="Q25" t="n">
-        <v>269.7348990770005</v>
+        <v>262.3677771620921</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9983318530618392</v>
+        <v>0.9335407403020981</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8238366001634484</v>
+        <v>0.6986913365653731</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9938813088199928</v>
+        <v>-0.4142382950897905</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9953838435109578</v>
+        <v>0.7896470359470897</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9945735285518597</v>
+        <v>0.7735935442429984</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01115490625659099</v>
+        <v>0.4444133756166229</v>
       </c>
       <c r="H26" t="n">
-        <v>1.178005465864891</v>
+        <v>2.014852419786173</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04968297055420906</v>
+        <v>0.6561950525810932</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01973931501420107</v>
+        <v>2.116294545076969</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03471115326862997</v>
+        <v>1.386244798829031</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1111270604569791</v>
+        <v>0.7354408977038789</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1056167896529287</v>
+        <v>0.6666433646385621</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000702377658173</v>
+        <v>1.02798284618859</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1101131150453488</v>
+        <v>0.6950237528132331</v>
       </c>
       <c r="P26" t="n">
-        <v>170.9917517096902</v>
+        <v>163.6220002470448</v>
       </c>
       <c r="Q26" t="n">
-        <v>269.7206935240145</v>
+        <v>262.350942061369</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_8.xlsx
@@ -518,111 +518,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_1</t>
+          <t>model_22_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9747069497287959</v>
+        <v>0.9979912598465298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7288991772507944</v>
+        <v>0.7654425054779865</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6436629505533576</v>
+        <v>0.9988066428209729</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9876031596739001</v>
+        <v>0.9673288710964122</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9763133286437761</v>
+        <v>0.9955349745840362</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1691347436273297</v>
+        <v>0.01343245465565274</v>
       </c>
       <c r="H2" t="n">
-        <v>1.812852450028444</v>
+        <v>1.568487045906656</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1653374892407261</v>
+        <v>0.01997684134274272</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1247206840009934</v>
+        <v>0.06397599977276171</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1450291020163306</v>
+        <v>0.04197642055775221</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6797031200855155</v>
+        <v>0.200521631375368</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4112599465390833</v>
+        <v>0.1158984670116596</v>
       </c>
       <c r="N2" t="n">
-        <v>1.010649705377349</v>
+        <v>1.000845785327777</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4287681338887043</v>
+        <v>0.120832504695247</v>
       </c>
       <c r="P2" t="n">
-        <v>165.5541191643271</v>
+        <v>170.6201630221722</v>
       </c>
       <c r="Q2" t="n">
-        <v>264.2830609786513</v>
+        <v>269.3491048364965</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_0</t>
+          <t>model_22_8_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.975116717011779</v>
+        <v>0.9979912394573887</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7284026443545654</v>
+        <v>0.7654424505760542</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9291540005506859</v>
+        <v>0.9988066209655244</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9943585628040138</v>
+        <v>0.9673286227251842</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9926807618307187</v>
+        <v>0.9955349292589447</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1663946279192166</v>
+        <v>0.01343259099793367</v>
       </c>
       <c r="H3" t="n">
-        <v>1.816172767791852</v>
+        <v>1.568487413036131</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03287196683558283</v>
+        <v>0.01997720720372187</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05675671278516857</v>
+        <v>0.06397648612870237</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0448143398103757</v>
+        <v>0.04197684666621212</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5251795917602817</v>
+        <v>0.2005228810767513</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4079149763360211</v>
+        <v>0.1158990552072521</v>
       </c>
       <c r="N3" t="n">
-        <v>1.010477171784514</v>
+        <v>1.000845793912678</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4252807613790547</v>
+        <v>0.1208331179315437</v>
       </c>
       <c r="P3" t="n">
-        <v>165.586786070511</v>
+        <v>170.6201427218485</v>
       </c>
       <c r="Q3" t="n">
-        <v>264.3157278848352</v>
+        <v>269.3490845361728</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9707604379178587</v>
+        <v>0.9979911983028805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7252202052470141</v>
+        <v>0.7654423978958849</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2502933775194305</v>
+        <v>0.9988065927507033</v>
       </c>
       <c r="E4" t="n">
-        <v>0.974020710825264</v>
+        <v>0.967327985498061</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9502494206277337</v>
+        <v>0.9955348377743104</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1955250862790827</v>
+        <v>0.0134328661983194</v>
       </c>
       <c r="H4" t="n">
-        <v>1.837453752757832</v>
+        <v>1.568487765308666</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3478577678649246</v>
+        <v>0.01997767952082509</v>
       </c>
       <c r="J4" t="n">
-        <v>0.261369399822871</v>
+        <v>0.06397773393505798</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3046135838438978</v>
+        <v>0.04197770672794154</v>
       </c>
       <c r="L4" t="n">
-        <v>0.786795106757097</v>
+        <v>0.2005227298000659</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4421821867500801</v>
+        <v>0.1159002424428845</v>
       </c>
       <c r="N4" t="n">
-        <v>1.012311394560902</v>
+        <v>1.000845811240892</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4610067978833448</v>
+        <v>0.1208343557102548</v>
       </c>
       <c r="P4" t="n">
-        <v>165.2641331784515</v>
+        <v>170.6201017472418</v>
       </c>
       <c r="Q4" t="n">
-        <v>263.9930749927757</v>
+        <v>269.349043561566</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9666028997782999</v>
+        <v>0.9979911878587799</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7209399471630926</v>
+        <v>0.7654423709738818</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003083375738879623</v>
+        <v>0.998806588588051</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9554729483577739</v>
+        <v>0.9673277981547741</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9256441858705717</v>
+        <v>0.9955348145572246</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2233265629620151</v>
+        <v>0.01343293603806794</v>
       </c>
       <c r="H5" t="n">
-        <v>1.866075858273791</v>
+        <v>1.568487945336225</v>
       </c>
       <c r="I5" t="n">
-        <v>0.462561195625422</v>
+        <v>0.01997774920376989</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4479725632727543</v>
+        <v>0.063978100787214</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4552668794490881</v>
+        <v>0.04197792499549195</v>
       </c>
       <c r="L5" t="n">
-        <v>0.830763864813408</v>
+        <v>0.2005227949070712</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4725743993933813</v>
+        <v>0.1159005437349969</v>
       </c>
       <c r="N5" t="n">
-        <v>1.014061936935453</v>
+        <v>1.000845815638408</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4926928699394246</v>
+        <v>0.1208346698289963</v>
       </c>
       <c r="P5" t="n">
-        <v>164.9982403416404</v>
+        <v>170.6200913489298</v>
       </c>
       <c r="Q5" t="n">
-        <v>263.7271821559646</v>
+        <v>269.349033163254</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9629228798004864</v>
+        <v>0.9979911728634352</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7175530361241054</v>
+        <v>0.7654423507360392</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1260527867710226</v>
+        <v>0.9988065843634369</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9360573883660083</v>
+        <v>0.9673275141978989</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9047998515280293</v>
+        <v>0.9955347797305777</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2479348734985878</v>
+        <v>0.01343303631200693</v>
       </c>
       <c r="H6" t="n">
-        <v>1.888724147986791</v>
+        <v>1.568488080666771</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5224793234561536</v>
+        <v>0.01997781992395966</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6433063627520574</v>
+        <v>0.06397865682631017</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5828928783226168</v>
+        <v>0.04197825240638919</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8437091209369599</v>
+        <v>0.2005217404858414</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4979305910451655</v>
+        <v>0.1159009763203353</v>
       </c>
       <c r="N6" t="n">
-        <v>1.015611419031374</v>
+        <v>1.000845821952238</v>
       </c>
       <c r="O6" t="n">
-        <v>0.519128527164378</v>
+        <v>0.1208351208303881</v>
       </c>
       <c r="P6" t="n">
-        <v>164.7891783483298</v>
+        <v>170.6200764194215</v>
       </c>
       <c r="Q6" t="n">
-        <v>263.518120162654</v>
+        <v>269.3490182337458</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9596998889695254</v>
+        <v>0.9979911609704089</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7150186246865519</v>
+        <v>0.7654423423796688</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1948763081363905</v>
+        <v>0.9988065747497913</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9179537612048025</v>
+        <v>0.9673273425254832</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8873186481332338</v>
+        <v>0.9955347547849337</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2694870280257321</v>
+        <v>0.01343311584072921</v>
       </c>
       <c r="H7" t="n">
-        <v>1.905671768939602</v>
+        <v>1.568488136545858</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5544128769301077</v>
+        <v>0.01997798085672802</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8254412215588491</v>
+        <v>0.06397899299205613</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6899270492444783</v>
+        <v>0.04197848692439208</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8423154525383663</v>
+        <v>0.2005202169416171</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5191214000845391</v>
+        <v>0.1159013194089231</v>
       </c>
       <c r="N7" t="n">
-        <v>1.016968467802305</v>
+        <v>1.000845826959828</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5412214728155798</v>
+        <v>0.1208354785249673</v>
       </c>
       <c r="P7" t="n">
-        <v>164.6224700465535</v>
+        <v>170.6200645786902</v>
       </c>
       <c r="Q7" t="n">
-        <v>263.3514118608778</v>
+        <v>269.3490063930145</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9568725338779079</v>
+        <v>0.9979911632183097</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7130802751180501</v>
+        <v>0.7654423273452489</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2337991198405576</v>
+        <v>0.9988065755825606</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9018380327383181</v>
+        <v>0.9673273833643806</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8726035936077718</v>
+        <v>0.9955347597795596</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2883935645421514</v>
+        <v>0.01343310080900574</v>
       </c>
       <c r="H8" t="n">
-        <v>1.918633521429453</v>
+        <v>1.568488237081093</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5724727446069324</v>
+        <v>0.0199779669161408</v>
       </c>
       <c r="J8" t="n">
-        <v>0.987576461236213</v>
+        <v>0.06397891302208344</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7800246029215727</v>
+        <v>0.04197843996911212</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8335835313069946</v>
+        <v>0.2005182058929605</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5370228715261124</v>
+        <v>0.1159012545618284</v>
       </c>
       <c r="N8" t="n">
-        <v>1.018158933104039</v>
+        <v>1.000845826013343</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5598850469575752</v>
+        <v>0.1208354109171975</v>
       </c>
       <c r="P8" t="n">
-        <v>164.4868583763358</v>
+        <v>170.6200668167014</v>
       </c>
       <c r="Q8" t="n">
-        <v>263.21580019066</v>
+        <v>269.3490086310256</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9543697918515743</v>
+        <v>0.9979911591010736</v>
       </c>
       <c r="C9" t="n">
-        <v>0.711524977840982</v>
+        <v>0.7654422951135511</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2578138310230573</v>
+        <v>0.9988065759201337</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8877070064519854</v>
+        <v>0.9673272926074405</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8600839955535619</v>
+        <v>0.9955347506281589</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3051294119963118</v>
+        <v>0.01343312834098232</v>
       </c>
       <c r="H9" t="n">
-        <v>1.929033801482692</v>
+        <v>1.568488452614605</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5836153750404548</v>
+        <v>0.01997796126515444</v>
       </c>
       <c r="J9" t="n">
-        <v>1.129744240904786</v>
+        <v>0.06397909074064329</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8566797832168987</v>
+        <v>0.04197852600289886</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8210682800810362</v>
+        <v>0.2005212030270492</v>
       </c>
       <c r="M9" t="n">
-        <v>0.552385202550097</v>
+        <v>0.1159013733351867</v>
       </c>
       <c r="N9" t="n">
-        <v>1.01921271922039</v>
+        <v>1.000845827746916</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5759013842176602</v>
+        <v>0.1208355347469836</v>
       </c>
       <c r="P9" t="n">
-        <v>164.3740385814759</v>
+        <v>170.6200627175811</v>
       </c>
       <c r="Q9" t="n">
-        <v>263.1029803958002</v>
+        <v>269.3490045319053</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9521281346388614</v>
+        <v>0.9979911344637771</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7102097749166276</v>
+        <v>0.765442271589423</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2743961306361917</v>
+        <v>0.9988065496307554</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8753346854778054</v>
+        <v>0.9673269914947636</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8492909105264046</v>
+        <v>0.9955346995939401</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3201193840996054</v>
+        <v>0.01343329309069805</v>
       </c>
       <c r="H10" t="n">
-        <v>1.937828569493803</v>
+        <v>1.568488609920558</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5913094270289603</v>
+        <v>0.01997840135027503</v>
       </c>
       <c r="J10" t="n">
-        <v>1.254218243472263</v>
+        <v>0.06397968037391251</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9227638439924208</v>
+        <v>0.04197900578378043</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8067960758070104</v>
+        <v>0.2005216815370969</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5657909367421905</v>
+        <v>0.1159020840653784</v>
       </c>
       <c r="N10" t="n">
-        <v>1.020156574888901</v>
+        <v>1.000845838120515</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5898778282680065</v>
+        <v>0.120836275734431</v>
       </c>
       <c r="P10" t="n">
-        <v>164.2781225549048</v>
+        <v>170.6200381888635</v>
       </c>
       <c r="Q10" t="n">
-        <v>263.007064369229</v>
+        <v>269.3489800031878</v>
       </c>
     </row>
     <row r="11">
@@ -1017,162 +1017,162 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9500979812021743</v>
+        <v>0.9979911243404316</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7090479418605022</v>
+        <v>0.7654422396957594</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2873163701282671</v>
+        <v>0.9988065356180867</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8644593994832508</v>
+        <v>0.9673268952156474</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8398665134196703</v>
+        <v>0.9955346733598822</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3336950294787291</v>
+        <v>0.01343336078555613</v>
       </c>
       <c r="H11" t="n">
-        <v>1.945597752489863</v>
+        <v>1.568488823193633</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5973043129419628</v>
+        <v>0.01997863592284359</v>
       </c>
       <c r="J11" t="n">
-        <v>1.36363105127391</v>
+        <v>0.06397986890589566</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9804676821079366</v>
+        <v>0.04197925241436963</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7919783173530337</v>
+        <v>0.2005220514660585</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5776634223133131</v>
+        <v>0.1159023760996992</v>
       </c>
       <c r="N11" t="n">
-        <v>1.021011376335927</v>
+        <v>1.000845842382976</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6022557501293251</v>
+        <v>0.1208365802012575</v>
       </c>
       <c r="P11" t="n">
-        <v>164.1950555770297</v>
+        <v>170.6200281102198</v>
       </c>
       <c r="Q11" t="n">
-        <v>262.923997391354</v>
+        <v>269.3489699245441</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_10</t>
+          <t>model_22_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9482434087851421</v>
+        <v>0.9979911053267795</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7079889443688085</v>
+        <v>0.7654422316312559</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2984844837094951</v>
+        <v>0.9988065344883483</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8548479900820313</v>
+        <v>0.9673264990497686</v>
       </c>
       <c r="F12" t="n">
-        <v>0.831546881823039</v>
+        <v>0.9955346348263834</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3460965637709441</v>
+        <v>0.01343348792993499</v>
       </c>
       <c r="H12" t="n">
-        <v>1.952679273593053</v>
+        <v>1.568488877121005</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6024862267001392</v>
+        <v>0.01997865483470533</v>
       </c>
       <c r="J12" t="n">
-        <v>1.460328396984647</v>
+        <v>0.06398064467058501</v>
       </c>
       <c r="K12" t="n">
-        <v>1.031407245604227</v>
+        <v>0.04197961467397655</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7773580327279778</v>
+        <v>0.2005208071217438</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5882997227357362</v>
+        <v>0.1159029245961248</v>
       </c>
       <c r="N12" t="n">
-        <v>1.021792248932572</v>
+        <v>1.000845850388725</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6133448598809079</v>
+        <v>0.1208371520483114</v>
       </c>
       <c r="P12" t="n">
-        <v>164.122074913637</v>
+        <v>170.6200091806639</v>
       </c>
       <c r="Q12" t="n">
-        <v>262.8510167279612</v>
+        <v>269.3489509949881</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_11</t>
+          <t>model_22_8_10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9465397293428146</v>
+        <v>0.9979911146283057</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7070047205822971</v>
+        <v>0.7654422284189268</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3088335399141395</v>
+        <v>0.9988065352700093</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8463097698764653</v>
+        <v>0.9673266909037154</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8241399420941662</v>
+        <v>0.9955346517717669</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3574890760465106</v>
+        <v>0.01343342573058675</v>
       </c>
       <c r="H13" t="n">
-        <v>1.959260782585389</v>
+        <v>1.568488898601865</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6072881045052796</v>
+        <v>0.01997864174967255</v>
       </c>
       <c r="J13" t="n">
-        <v>1.54622872611507</v>
+        <v>0.06398026898573848</v>
       </c>
       <c r="K13" t="n">
-        <v>1.076758565821926</v>
+        <v>0.04197945536770552</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7633485125272762</v>
+        <v>0.2005225228862328</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5979039020164617</v>
+        <v>0.1159026562706254</v>
       </c>
       <c r="N13" t="n">
-        <v>1.022509587645131</v>
+        <v>1.000845846472292</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6233579089570057</v>
+        <v>0.12083687229964</v>
       </c>
       <c r="P13" t="n">
-        <v>164.0573009476564</v>
+        <v>170.6200184410276</v>
       </c>
       <c r="Q13" t="n">
-        <v>262.7862427619806</v>
+        <v>269.3489602553519</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9449692985173848</v>
+        <v>0.9979911165809879</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7060808788829768</v>
+        <v>0.7654422134057315</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3187969744547949</v>
+        <v>0.9988065334381696</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8386908037580652</v>
+        <v>0.9673267482289521</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8175029212888565</v>
+        <v>0.9955346561110268</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3679905542073291</v>
+        <v>0.01343341267299128</v>
       </c>
       <c r="H14" t="n">
-        <v>1.965438516282644</v>
+        <v>1.568488998995171</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6119110569985005</v>
+        <v>0.01997867241473385</v>
       </c>
       <c r="J14" t="n">
-        <v>1.622880731034958</v>
+        <v>0.06398015673252097</v>
       </c>
       <c r="K14" t="n">
-        <v>1.117395815057237</v>
+        <v>0.04197941457362741</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7538462922540254</v>
+        <v>0.2005189180912351</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6066222500101106</v>
+        <v>0.1159025999406022</v>
       </c>
       <c r="N14" t="n">
-        <v>1.023170821676891</v>
+        <v>1.00084584565011</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6324474150742126</v>
+        <v>0.1208368135715311</v>
       </c>
       <c r="P14" t="n">
-        <v>163.999396018115</v>
+        <v>170.6200203850741</v>
       </c>
       <c r="Q14" t="n">
-        <v>262.7283378324393</v>
+        <v>269.3489621993983</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_13</t>
+          <t>model_22_8_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9435198201606994</v>
+        <v>0.9979911128291908</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7052101949199929</v>
+        <v>0.7654422020024898</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.328538916542594</v>
+        <v>0.9988065390012093</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8318692435807873</v>
+        <v>0.9673266206011436</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8115293709850057</v>
+        <v>0.9955346477720068</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3776832226527185</v>
+        <v>0.01343343776127583</v>
       </c>
       <c r="H15" t="n">
-        <v>1.971260783952248</v>
+        <v>1.568489075248701</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6164312387972399</v>
+        <v>0.01997857928925236</v>
       </c>
       <c r="J15" t="n">
-        <v>1.691510287348013</v>
+        <v>0.06398040665093288</v>
       </c>
       <c r="K15" t="n">
-        <v>1.153970757284787</v>
+        <v>0.04197949297009262</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7513383283069882</v>
+        <v>0.2005201284131312</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6145593727645186</v>
+        <v>0.1159027081705852</v>
       </c>
       <c r="N15" t="n">
-        <v>1.02378112835339</v>
+        <v>1.000845847229814</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6407224375763849</v>
+        <v>0.1208369264090885</v>
       </c>
       <c r="P15" t="n">
-        <v>163.9473989400414</v>
+        <v>170.6200166498712</v>
       </c>
       <c r="Q15" t="n">
-        <v>262.6763407543656</v>
+        <v>269.3489584641954</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_14</t>
+          <t>model_22_8_20</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9421817035064644</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7043894095020022</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.338082213366905</v>
+        <v>0.9988065008000084</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8257449187417987</v>
+        <v>0.9673259280453063</v>
       </c>
       <c r="F16" t="n">
-        <v>0.806136201310564</v>
+        <v>0.9955345416340745</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3866312148810483</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H16" t="n">
-        <v>1.976749379821721</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6208592508113172</v>
+        <v>0.01997921877870486</v>
       </c>
       <c r="J16" t="n">
-        <v>1.753125179761752</v>
+        <v>0.06398176280095222</v>
       </c>
       <c r="K16" t="n">
-        <v>1.186992136403152</v>
+        <v>0.04198049078982854</v>
       </c>
       <c r="L16" t="n">
-        <v>0.748987974239399</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6217967633246801</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N16" t="n">
-        <v>1.024344545892015</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6482679388361564</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P16" t="n">
-        <v>163.9005679468114</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q16" t="n">
-        <v>262.6295097611356</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_15</t>
+          <t>model_22_8_21</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9409473838393512</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7036172515089556</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.347411304697429</v>
+        <v>0.9988065008000084</v>
       </c>
       <c r="E17" t="n">
-        <v>0.820237174370956</v>
+        <v>0.9673259280453063</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8012576872014936</v>
+        <v>0.9955345416340745</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3948851161785534</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H17" t="n">
-        <v>1.981912803876685</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6251878732205827</v>
+        <v>0.01997921877870486</v>
       </c>
       <c r="J17" t="n">
-        <v>1.80853685137842</v>
+        <v>0.06398176280095222</v>
       </c>
       <c r="K17" t="n">
-        <v>1.216862374807358</v>
+        <v>0.04198049078982854</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7468165595134206</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6283988511913062</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N17" t="n">
-        <v>1.024864259436063</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6551510912514706</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P17" t="n">
-        <v>163.8583208030045</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q17" t="n">
-        <v>262.5872626173287</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_16</t>
+          <t>model_22_8_22</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9398102980753772</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7028930345822522</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3564527207384403</v>
+        <v>0.9988065008000084</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8152768169886832</v>
+        <v>0.9673259280453063</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7968398087711445</v>
+        <v>0.9955345416340745</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4024888139180465</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H18" t="n">
-        <v>1.986755645800263</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6293830166380944</v>
+        <v>0.01997921877870486</v>
       </c>
       <c r="J18" t="n">
-        <v>1.85844143588</v>
+        <v>0.06398176280095222</v>
       </c>
       <c r="K18" t="n">
-        <v>1.243912226259047</v>
+        <v>0.04198049078982854</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7448344581326043</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M18" t="n">
-        <v>0.634420061093631</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N18" t="n">
-        <v>1.025343032389315</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6614286365249602</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P18" t="n">
-        <v>163.8201759480353</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q18" t="n">
-        <v>262.5491177623596</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_17</t>
+          <t>model_22_8_23</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.938764365244971</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7022160936270769</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3651707115573917</v>
+        <v>0.9988065008000084</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8108062790244752</v>
+        <v>0.9673259280453063</v>
       </c>
       <c r="F19" t="n">
-        <v>0.792836605603632</v>
+        <v>0.9955345416340745</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4094829715710504</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H19" t="n">
-        <v>1.991282353084546</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6334280933862672</v>
+        <v>0.01997921877870486</v>
       </c>
       <c r="J19" t="n">
-        <v>1.903418102359646</v>
+        <v>0.06398176280095222</v>
       </c>
       <c r="K19" t="n">
-        <v>1.268423097872956</v>
+        <v>0.04198049078982854</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7431717271613149</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6399085650083537</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N19" t="n">
-        <v>1.025783425160012</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O19" t="n">
-        <v>0.667150797414102</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P19" t="n">
-        <v>163.7857199200374</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q19" t="n">
-        <v>262.5146617343617</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_18</t>
+          <t>model_22_8_24</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9378039312185723</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7015855352688476</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3735065557474353</v>
+        <v>0.9988065008000084</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8067747581625335</v>
+        <v>0.9673259280453063</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7892085597731304</v>
+        <v>0.9955345416340745</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4159053983279703</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H20" t="n">
-        <v>1.99549889972948</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6372958572105003</v>
+        <v>0.01997921877870486</v>
       </c>
       <c r="J20" t="n">
-        <v>1.94397795682571</v>
+        <v>0.06398176280095222</v>
       </c>
       <c r="K20" t="n">
-        <v>1.290636950590319</v>
+        <v>0.04198049078982854</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7416772387559095</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6449072788610548</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N20" t="n">
-        <v>1.026187818434285</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6723623168642767</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P20" t="n">
-        <v>163.7545949048948</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q20" t="n">
-        <v>262.483536719219</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_19</t>
+          <t>model_22_8_14</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9369235382344814</v>
+        <v>0.9979910823532145</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7010002205811776</v>
+        <v>0.7654421759192367</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3814244360726926</v>
+        <v>0.9988065260562291</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8031382791429897</v>
+        <v>0.9673260807905675</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7859209247966805</v>
+        <v>0.9955345800278967</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4217925902664236</v>
+        <v>0.01343364155426932</v>
       </c>
       <c r="H21" t="n">
-        <v>1.999412901741055</v>
+        <v>1.568489249667535</v>
       </c>
       <c r="I21" t="n">
-        <v>0.640969689205011</v>
+        <v>0.01997879598867887</v>
       </c>
       <c r="J21" t="n">
-        <v>1.980563420439199</v>
+        <v>0.06398146369800942</v>
       </c>
       <c r="K21" t="n">
-        <v>1.310766530691355</v>
+        <v>0.04198012984334414</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7403316459464867</v>
+        <v>0.2005215948477438</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6494556106974699</v>
+        <v>0.1159035873226939</v>
       </c>
       <c r="N21" t="n">
-        <v>1.02655851021706</v>
+        <v>1.000845860061804</v>
       </c>
       <c r="O21" t="n">
-        <v>0.677104280603313</v>
+        <v>0.1208378429885225</v>
       </c>
       <c r="P21" t="n">
-        <v>163.7264831560554</v>
+        <v>170.6199863089486</v>
       </c>
       <c r="Q21" t="n">
-        <v>262.4554249703796</v>
+        <v>269.3489281232728</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_20</t>
+          <t>model_22_8_15</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9361178290343186</v>
+        <v>0.9979910823532145</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7004587279464261</v>
+        <v>0.7654421759192367</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3889030383284049</v>
+        <v>0.9988065260562291</v>
       </c>
       <c r="E22" t="n">
-        <v>0.799857781478961</v>
+        <v>0.9673260807905675</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7829423883358377</v>
+        <v>0.9955345800278967</v>
       </c>
       <c r="G22" t="n">
-        <v>0.427180371397862</v>
+        <v>0.01343364155426932</v>
       </c>
       <c r="H22" t="n">
-        <v>2.003033865482984</v>
+        <v>1.568489249667535</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6444396997523556</v>
+        <v>0.01997879598867887</v>
       </c>
       <c r="J22" t="n">
-        <v>2.013567468386798</v>
+        <v>0.06398146369800942</v>
       </c>
       <c r="K22" t="n">
-        <v>1.329003557825411</v>
+        <v>0.04198012984334414</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7391249826450036</v>
+        <v>0.2005215948477438</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6535903697254588</v>
+        <v>0.1159035873226939</v>
       </c>
       <c r="N22" t="n">
-        <v>1.026897756196076</v>
+        <v>1.000845860061804</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6814150648832545</v>
+        <v>0.1208378429885225</v>
       </c>
       <c r="P22" t="n">
-        <v>163.7010978789883</v>
+        <v>170.6199863089486</v>
       </c>
       <c r="Q22" t="n">
-        <v>262.4300396933125</v>
+        <v>269.3489281232728</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_21</t>
+          <t>model_22_8_16</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9353815888178396</v>
+        <v>0.9979910823532145</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6999591375730205</v>
+        <v>0.7654421759192367</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3959246777473167</v>
+        <v>0.9988065260562291</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7968980825767535</v>
+        <v>0.9673260807905675</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7802446914336318</v>
+        <v>0.9955345800278967</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4321036131155314</v>
+        <v>0.01343364155426932</v>
       </c>
       <c r="H23" t="n">
-        <v>2.006374628610348</v>
+        <v>1.568489249667535</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6476976832645371</v>
+        <v>0.01997879598867887</v>
       </c>
       <c r="J23" t="n">
-        <v>2.043344061600082</v>
+        <v>0.06398146369800942</v>
       </c>
       <c r="K23" t="n">
-        <v>1.345521056352546</v>
+        <v>0.04198012984334414</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7380463815671273</v>
+        <v>0.2005215948477438</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6573458854480885</v>
+        <v>0.1159035873226939</v>
       </c>
       <c r="N23" t="n">
-        <v>1.027207752076699</v>
+        <v>1.000845860061804</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6853304606851858</v>
+        <v>0.1208378429885225</v>
       </c>
       <c r="P23" t="n">
-        <v>163.6781797486429</v>
+        <v>170.6199863089486</v>
       </c>
       <c r="Q23" t="n">
-        <v>262.4071215629671</v>
+        <v>269.3489281232728</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_22</t>
+          <t>model_22_8_17</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9347098766680738</v>
+        <v>0.9979910781696605</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6994996153484929</v>
+        <v>0.7654421667687253</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.4024835071888007</v>
+        <v>0.9988065248815298</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7942281326108878</v>
+        <v>0.9673260015397152</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7778026449639063</v>
+        <v>0.9955345707284033</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4365953553539653</v>
+        <v>0.01343366952971471</v>
       </c>
       <c r="H24" t="n">
-        <v>2.00944745584167</v>
+        <v>1.568489310857046</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6507409267159187</v>
+        <v>0.01997881565318706</v>
       </c>
       <c r="J24" t="n">
-        <v>2.070205582538617</v>
+        <v>0.06398161888556123</v>
       </c>
       <c r="K24" t="n">
-        <v>1.360473254627268</v>
+        <v>0.04198021726937414</v>
       </c>
       <c r="L24" t="n">
-        <v>0.7370790045600883</v>
+        <v>0.2005205751671535</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6607536268186239</v>
+        <v>0.1159037080067532</v>
       </c>
       <c r="N24" t="n">
-        <v>1.027490578245022</v>
+        <v>1.000845861823301</v>
       </c>
       <c r="O24" t="n">
-        <v>0.688883276660862</v>
+        <v>0.1208379688103521</v>
       </c>
       <c r="P24" t="n">
-        <v>163.657496946282</v>
+        <v>170.6199821439697</v>
       </c>
       <c r="Q24" t="n">
-        <v>262.3864387606063</v>
+        <v>269.348923958294</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_23</t>
+          <t>model_22_8_18</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9340978165695206</v>
+        <v>0.9979910781696605</v>
       </c>
       <c r="C25" t="n">
-        <v>0.699077753610222</v>
+        <v>0.7654421667687253</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.4085810603392144</v>
+        <v>0.9988065248815298</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7918194764961608</v>
+        <v>0.9673260015397152</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7755927350068403</v>
+        <v>0.9955345707284033</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4406882040512683</v>
+        <v>0.01343366952971471</v>
       </c>
       <c r="H25" t="n">
-        <v>2.012268447227982</v>
+        <v>1.568489310857046</v>
       </c>
       <c r="I25" t="n">
-        <v>0.653570141724481</v>
+        <v>0.01997881565318706</v>
       </c>
       <c r="J25" t="n">
-        <v>2.094438308801893</v>
+        <v>0.06398161888556123</v>
       </c>
       <c r="K25" t="n">
-        <v>1.374004124025936</v>
+        <v>0.04198021726937414</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7362130538853926</v>
+        <v>0.2005205751671535</v>
       </c>
       <c r="M25" t="n">
-        <v>0.663843508706132</v>
+        <v>0.1159037080067532</v>
       </c>
       <c r="N25" t="n">
-        <v>1.027748287760202</v>
+        <v>1.000845861823301</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6921047012172585</v>
+        <v>0.1208379688103521</v>
       </c>
       <c r="P25" t="n">
-        <v>163.6388353477678</v>
+        <v>170.6199821439697</v>
       </c>
       <c r="Q25" t="n">
-        <v>262.3677771620921</v>
+        <v>269.348923958294</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_22_8_24</t>
+          <t>model_22_8_19</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9335407403020981</v>
+        <v>0.9979910781696605</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6986913365653731</v>
+        <v>0.7654421667687253</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.4142382950897905</v>
+        <v>0.9988065248815298</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7896470359470897</v>
+        <v>0.9673260015397152</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7735935442429984</v>
+        <v>0.9955345707284033</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4444133756166229</v>
+        <v>0.01343366952971471</v>
       </c>
       <c r="H26" t="n">
-        <v>2.014852419786173</v>
+        <v>1.568489310857046</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6561950525810932</v>
+        <v>0.01997881565318706</v>
       </c>
       <c r="J26" t="n">
-        <v>2.116294545076969</v>
+        <v>0.06398161888556123</v>
       </c>
       <c r="K26" t="n">
-        <v>1.386244798829031</v>
+        <v>0.04198021726937414</v>
       </c>
       <c r="L26" t="n">
-        <v>0.7354408977038789</v>
+        <v>0.2005205751671535</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6666433646385621</v>
+        <v>0.1159037080067532</v>
       </c>
       <c r="N26" t="n">
-        <v>1.02798284618859</v>
+        <v>1.000845861823301</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6950237528132331</v>
+        <v>0.1208379688103521</v>
       </c>
       <c r="P26" t="n">
-        <v>163.6220002470448</v>
+        <v>170.6199821439697</v>
       </c>
       <c r="Q26" t="n">
-        <v>262.350942061369</v>
+        <v>269.348923958294</v>
       </c>
     </row>
   </sheetData>
